--- a/jenkins alter.xlsx
+++ b/jenkins alter.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhask\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\sriram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="final1" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="161">
   <si>
     <t>Feature/Aspect</t>
   </si>
@@ -361,13 +362,284 @@
   </si>
   <si>
     <t>This Excel file provides a comprehensive comparison of Jenkins</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>GitLab CI/CD</t>
+  </si>
+  <si>
+    <t>CircleCI</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Travis CI</t>
+  </si>
+  <si>
+    <t>Azure DevOps</t>
+  </si>
+  <si>
+    <t>TeamCity</t>
+  </si>
+  <si>
+    <t>types of build agents does jenkins support</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>Jenkins supports various types of build agents to accommodate different requirements and environments:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Jenkins Managed Nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: These are agents managed directly by Jenkins. They can be set up on different operating systems and can run builds as directed by the Jenkins master.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. SSH Agents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: These agents connect to Jenkins over SSH and execute builds on remote machines. They are useful when you need to build on machines that Jenkins cannot directly manage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Docker Agents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Jenkins can spawn build agents as Docker containers. This is particularly useful for ensuring a clean and consistent environment for each build.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Kubernetes Agents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Jenkins can utilize Kubernetes to dynamically provision build agents as pods. This is beneficial for scaling and resource management in Kubernetes environments.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. JNLP Agents (Java Web Start)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: These agents connect to Jenkins using Java Network Launch Protocol (JNLP). They can be used for running builds on machines where Jenkins has no direct access.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6. Windows Agents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Jenkins supports building on Windows machines by installing agents on Windows systems. This is essential for projects targeting Windows environments.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7. Unix/Linux Agents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Similarly, Jenkins supports building on Unix/Linux machines by installing agents on those platforms. This is crucial for projects targeting Unix/Linux environments.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8. AWS EC2 Agents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Jenkins can dynamically provision build agents as Amazon EC2 instances. This allows for flexible scaling based on demand.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9. Google Compute Engine Agents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Similar to AWS EC2, Jenkins can provision build agents on Google Compute Engine instances.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10. Microsoft Azure Agents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Jenkins can also provision build agents on Microsoft Azure virtual machines, providing flexibility for Azure users.</t>
+    </r>
+  </si>
+  <si>
+    <t>These are some of the main types of build agents that Jenkins supports, offering flexibility and scalability for various build requirements and environments.</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>excel comparision of ci cd tools which supports build agents like Jenkins Managed Nodes SSH Agents Docker Agents Kubernetes Agents JNLP Agents (Java Web Start) Windows Agents Unix/Linux Agents AWS EC2 Agents Google Compute Engine Agents Microsoft Azure Agents</t>
+  </si>
+  <si>
+    <t>Creating an Excel comparison of CI/CD tools based on their support for various types of build agents like those supported by Jenkins can be a comprehensive task. However, I can provide you with a basic template to get started:</t>
+  </si>
+  <si>
+    <t>CI/CD Tool</t>
+  </si>
+  <si>
+    <t>Jenkins Managed Nodes</t>
+  </si>
+  <si>
+    <t>SSH Agents</t>
+  </si>
+  <si>
+    <t>Docker Agents</t>
+  </si>
+  <si>
+    <t>Kubernetes Agents</t>
+  </si>
+  <si>
+    <t>JNLP Agents</t>
+  </si>
+  <si>
+    <t>Windows Agents</t>
+  </si>
+  <si>
+    <t>Unix/Linux Agents</t>
+  </si>
+  <si>
+    <t>AWS EC2 Agents</t>
+  </si>
+  <si>
+    <t>Google Compute Engine Agents</t>
+  </si>
+  <si>
+    <t>Microsoft Azure Agents</t>
+  </si>
+  <si>
+    <t>This table provides a basic comparison of various CI/CD tools and their support for different types of build agents similar to those supported by Jenkins. You can expand this table by adding more tools or additional features as needed. Additionally, you may need to research each tool's documentation or consult their official resources for the most accurate and up-to-date information.</t>
+  </si>
+  <si>
+    <t>on prem agents ?</t>
+  </si>
+  <si>
+    <t>Adding "On-Premises Agents" as a category to the comparison table would be valuable, as it represents an important deployment scenario for many organizations. Here's the updated comparison table including support for On-Premises Agents:</t>
+  </si>
+  <si>
+    <t>On-Premises Agents</t>
+  </si>
+  <si>
+    <t>This table now includes an additional column for On-Premises Agents, showing whether each CI/CD tool supports deploying and managing agents within an organization's own infrastructure.</t>
+  </si>
+  <si>
+    <t>cloud agents ?</t>
+  </si>
+  <si>
+    <t>Certainly, adding "Cloud Agents" as a category to the comparison table would provide insights into each CI/CD tool's support for utilizing cloud-based resources for build agents. Here's the updated comparison table with the inclusion of Cloud Agents:</t>
+  </si>
+  <si>
+    <t>Cloud Agents</t>
+  </si>
+  <si>
+    <t>Now the table includes a column indicating whether each CI/CD tool supports utilizing cloud resources for build agents.</t>
+  </si>
+  <si>
+    <t>with teamcity also</t>
+  </si>
+  <si>
+    <t>Sure, let's add TeamCity to the comparison table with its support for Cloud Agents:</t>
+  </si>
+  <si>
+    <t>Now, TeamCity has been added to the table with support for Cloud Agents.</t>
+  </si>
+  <si>
+    <t>with cloud bees</t>
+  </si>
+  <si>
+    <r>
+      <t>ChatGPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>Certainly, let's add CloudBees to the comparison table with its support for Cloud Agents:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +688,30 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -498,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -552,6 +848,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -836,16 +1153,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="25.33203125" customWidth="1"/>
+    <col min="1" max="5" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="76.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -879,7 +1196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="76.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -896,7 +1213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -911,7 +1228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>19</v>
@@ -926,7 +1243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -941,7 +1258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -958,7 +1275,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="76.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>32</v>
@@ -973,7 +1290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -988,7 +1305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="76.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1005,7 +1322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="76.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -1022,7 +1339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="114" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -1039,10 +1356,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
     </row>
   </sheetData>
@@ -1059,13 +1376,13 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" customWidth="1"/>
-    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -1085,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1105,7 +1422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1125,7 +1442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>15</v>
@@ -1143,7 +1460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>19</v>
@@ -1161,7 +1478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>23</v>
@@ -1179,7 +1496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>32</v>
@@ -1217,7 +1534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>36</v>
@@ -1235,7 +1552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>40</v>
       </c>
@@ -1255,7 +1572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -1275,7 +1592,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>50</v>
       </c>
@@ -1295,10 +1612,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>71</v>
       </c>
@@ -1306,7 +1623,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>56</v>
       </c>
@@ -1322,7 +1639,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
@@ -1330,7 +1647,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>4</v>
       </c>
@@ -1338,8 +1655,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>71</v>
       </c>
@@ -1347,7 +1664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>1</v>
       </c>
@@ -1355,7 +1672,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>2</v>
       </c>
@@ -1363,7 +1680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>56</v>
       </c>
@@ -1371,7 +1688,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>3</v>
       </c>
@@ -1379,7 +1696,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>4</v>
       </c>
@@ -1387,8 +1704,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>71</v>
       </c>
@@ -1396,7 +1713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>1</v>
       </c>
@@ -1404,7 +1721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>2</v>
       </c>
@@ -1412,7 +1729,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>56</v>
       </c>
@@ -1420,7 +1737,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>4</v>
       </c>
@@ -1445,13 +1762,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G14"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
@@ -1474,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
@@ -1497,7 +1814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
@@ -1520,7 +1837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>15</v>
@@ -1541,7 +1858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>19</v>
@@ -1562,7 +1879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
         <v>23</v>
@@ -1583,7 +1900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>32</v>
@@ -1627,7 +1944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>36</v>
@@ -1648,7 +1965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>40</v>
       </c>
@@ -1671,7 +1988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>45</v>
       </c>
@@ -1694,7 +2011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>50</v>
       </c>
@@ -1717,7 +2034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>110</v>
       </c>
@@ -1733,9 +2050,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
@@ -1746,7 +2063,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="304.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="314.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -1757,7 +2074,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="304.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="357" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>56</v>
       </c>
@@ -1768,7 +2085,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="276.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="300" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1779,7 +2096,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="318" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -1790,7 +2107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="359.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="399.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>92</v>
       </c>
@@ -1801,7 +2118,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>95</v>
       </c>
@@ -1815,13 +2132,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
@@ -1838,7 +2155,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="304.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="314.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -1855,7 +2172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="318" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="357" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>56</v>
       </c>
@@ -1872,7 +2189,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="276.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="300" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1889,7 +2206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="318" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="342.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +2223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="400.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>92</v>
       </c>
@@ -1921,6 +2238,2070 @@
       </c>
       <c r="G6" s="16" t="s">
         <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="247.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+    </row>
+    <row r="7" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+    </row>
+    <row r="9" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+    </row>
+    <row r="11" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+    </row>
+    <row r="13" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+    </row>
+    <row r="15" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+    </row>
+    <row r="17" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+    </row>
+    <row r="19" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+    </row>
+    <row r="21" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+    </row>
+    <row r="23" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+    </row>
+    <row r="25" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+    </row>
+    <row r="27" spans="1:1" ht="396" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+    </row>
+    <row r="51" spans="1:12" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="L51" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L52" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L53" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L54" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L55" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L56" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L57" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L58" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L59" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="12"/>
+    </row>
+    <row r="68" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K68" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="L68" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="M68" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M69" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M70" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M71" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M72" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M73" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M74" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M75" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M76" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+    </row>
+    <row r="78" spans="1:13" ht="297" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="198" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="12"/>
+    </row>
+    <row r="85" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J85" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K85" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="L85" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="M85" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M86" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M87" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M88" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M89" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M90" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M91" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M92" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M93" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
+    </row>
+    <row r="95" spans="1:13" ht="198" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="214.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="12"/>
+    </row>
+    <row r="102" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I102" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J102" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K102" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="L102" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="M102" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M103" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M104" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M105" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M106" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M107" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M108" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M109" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M110" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
